--- a/views/Estadisticas_descriptivas.xlsx
+++ b/views/Estadisticas_descriptivas.xlsx
@@ -437,96 +437,96 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.479759116761459</v>
+        <v>0.440777801433539</v>
       </c>
       <c r="B2" t="n">
-        <v>36.1054979368797</v>
+        <v>38.9069618905684</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23329987732798</v>
+        <v>0.206727698530977</v>
       </c>
       <c r="E2" t="n">
-        <v>2.51845656295305</v>
+        <v>2.56397700659996</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0039032006245121</v>
+        <v>0.00596125186289121</v>
       </c>
       <c r="H2" t="n">
-        <v>0.091780974684956</v>
+        <v>0.11070896316798</v>
       </c>
       <c r="I2" t="n">
-        <v>0.348723095795695</v>
+        <v>0.325172095663899</v>
       </c>
       <c r="J2" t="n">
-        <v>0.456897513103602</v>
+        <v>0.428997232275921</v>
       </c>
       <c r="K2" t="n">
-        <v>1740673.13779692</v>
+        <v>1479543.26319104</v>
       </c>
       <c r="L2" t="n">
-        <v>1928416.68743727</v>
+        <v>1888247.01825633</v>
       </c>
       <c r="M2" t="n">
-        <v>49.885468941675</v>
+        <v>63.845149386133</v>
       </c>
       <c r="N2" t="n">
-        <v>49.5983048957288</v>
+        <v>50.1433539138457</v>
       </c>
       <c r="O2" t="n">
-        <v>0.205977472956396</v>
+        <v>0.365481513022497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.499617998140183</v>
+        <v>0.496497961081561</v>
       </c>
       <c r="B3" t="n">
-        <v>11.7580647021526</v>
+        <v>12.960033084884</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.422955073847835</v>
+        <v>0.404972833704031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.985659807072893</v>
+        <v>1.01839276678223</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06235703074838</v>
+        <v>0.0769813997072564</v>
       </c>
       <c r="H3" t="n">
-        <v>0.28873261749779</v>
+        <v>0.313782529857635</v>
       </c>
       <c r="I3" t="n">
-        <v>0.47659272862829</v>
+        <v>0.468455737173887</v>
       </c>
       <c r="J3" t="n">
-        <v>0.498166489769853</v>
+        <v>0.494950494753118</v>
       </c>
       <c r="K3" t="n">
-        <v>1911936.30995947</v>
+        <v>1447413.92405678</v>
       </c>
       <c r="L3" t="n">
-        <v>2557071.73857904</v>
+        <v>2764432.4627039</v>
       </c>
       <c r="M3" t="n">
-        <v>72.5406909098336</v>
+        <v>88.4643100120963</v>
       </c>
       <c r="N3" t="n">
-        <v>10.2588247797456</v>
+        <v>12.6454025148201</v>
       </c>
       <c r="O3" t="n">
-        <v>0.40443663880528</v>
+        <v>0.481582013245394</v>
       </c>
     </row>
   </sheetData>
